--- a/rhla_analysis/rhla1_3_exp_result/k8.xlsx
+++ b/rhla_analysis/rhla1_3_exp_result/k8.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.004087222502645781</v>
+        <v>0.004087222502645776</v>
       </c>
       <c r="B2" t="n">
         <v>0.3194244747549868</v>
@@ -466,12 +466,12 @@
         <v>0.1794543904518329</v>
       </c>
       <c r="D2" t="n">
-        <v>78.15196616974335</v>
+        <v>78.15196616974343</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.004338805762523314</v>
+        <v>0.004338805762523323</v>
       </c>
       <c r="B3" t="n">
         <v>0.3110731470294649</v>
@@ -480,12 +480,12 @@
         <v>0.174765558397272</v>
       </c>
       <c r="D3" t="n">
-        <v>71.6955687936937</v>
+        <v>71.69556879369355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.005014650857384724</v>
+        <v>0.005014650857384732</v>
       </c>
       <c r="B4" t="n">
         <v>0.3327749482641236</v>
@@ -494,12 +494,12 @@
         <v>0.1611253196930946</v>
       </c>
       <c r="D4" t="n">
-        <v>66.36054188579637</v>
+        <v>66.36054188579625</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.005521005441091032</v>
+        <v>0.005521005441091042</v>
       </c>
       <c r="B5" t="n">
         <v>0.3118918005149155</v>
@@ -508,12 +508,12 @@
         <v>0.1547314578005115</v>
       </c>
       <c r="D5" t="n">
-        <v>56.49184805970434</v>
+        <v>56.49184805970423</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.003535499296481013</v>
+        <v>0.003535499296481008</v>
       </c>
       <c r="B6" t="n">
         <v>0.2973659026628781</v>
@@ -522,12 +522,12 @@
         <v>0.1734867860187553</v>
       </c>
       <c r="D6" t="n">
-        <v>84.1086018483599</v>
+        <v>84.10860184836004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.006237910883110234</v>
+        <v>0.006237910883110183</v>
       </c>
       <c r="B7" t="n">
         <v>0.3335930562356304</v>
@@ -536,12 +536,12 @@
         <v>0.174765558397272</v>
       </c>
       <c r="D7" t="n">
-        <v>53.47832992274175</v>
+        <v>53.47832992274218</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.004074195834127526</v>
+        <v>0.004074195834127484</v>
       </c>
       <c r="B8" t="n">
         <v>0.3006738292310983</v>
@@ -550,12 +550,12 @@
         <v>0.1658141517476556</v>
       </c>
       <c r="D8" t="n">
-        <v>73.79955246934921</v>
+        <v>73.79955246934996</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.003496580149627073</v>
+        <v>0.003496580149627099</v>
       </c>
       <c r="B9" t="n">
         <v>0.2917488676104925</v>
@@ -564,12 +564,12 @@
         <v>0.1632566069906223</v>
       </c>
       <c r="D9" t="n">
-        <v>83.4383469349641</v>
+        <v>83.4383469349635</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.007130526319237251</v>
+        <v>0.007130526319237275</v>
       </c>
       <c r="B10" t="n">
         <v>0.3209777855412201</v>
@@ -578,12 +578,12 @@
         <v>0.1521739130434783</v>
       </c>
       <c r="D10" t="n">
-        <v>45.01459936768805</v>
+        <v>45.01459936768789</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.005045853629691938</v>
+        <v>0.005045853629691924</v>
       </c>
       <c r="B11" t="n">
         <v>0.3384595381267139</v>
@@ -592,7 +592,7 @@
         <v>0.1491901108269395</v>
       </c>
       <c r="D11" t="n">
-        <v>67.07676499672419</v>
+        <v>67.07676499672438</v>
       </c>
     </row>
   </sheetData>
